--- a/CashFlow/APTV_cashflow.xlsx
+++ b/CashFlow/APTV_cashflow.xlsx
@@ -730,19 +730,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>5119000000.0</v>
+        <v>-8000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>5107000000.0</v>
+        <v>131000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>3833000000.0</v>
+        <v>104000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>2644000000.0</v>
+        <v>-20000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1227000000.0</v>
+        <v>8000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>67000000.0</v>
@@ -976,19 +976,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>186000000.0</v>
+        <v>8432000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>8000000.0</v>
+        <v>8324000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>-802000000.0</v>
+        <v>6086000000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>-4000000.0</v>
+        <v>4720000000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>131000000.0</v>
+        <v>2442000000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>-34000000.0</v>
